--- a/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras 2022.xlsx
+++ b/1 GESTION/Documentacion/site/content/pages/1.BASIS/IMPRESORAS/Listado de Impresoras 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciro\Desktop\SAP\1 GESTION\Documentacion\site\content\pages\1.BASIS\IMPRESORAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgonzaleadmin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF0226-BE9F-4D77-804A-AE1F534355FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF85753-171F-40E0-A295-446013BDA878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -862,8 +862,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,9 @@
         <v>99</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>72</v>
       </c>
